--- a/Code/Results/Cases/Case_0_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9979541405333845</v>
+        <v>1.037948750878991</v>
       </c>
       <c r="D2">
-        <v>1.005978794419156</v>
+        <v>1.038545000071734</v>
       </c>
       <c r="E2">
-        <v>1.010742979213288</v>
+        <v>1.04551580758189</v>
       </c>
       <c r="F2">
-        <v>1.013065267605378</v>
+        <v>1.053702120090383</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042346365163082</v>
+        <v>1.033224874792498</v>
       </c>
       <c r="J2">
-        <v>1.020196215568979</v>
+        <v>1.043048846335555</v>
       </c>
       <c r="K2">
-        <v>1.017355458848368</v>
+        <v>1.041332728820576</v>
       </c>
       <c r="L2">
-        <v>1.022054648984279</v>
+        <v>1.048283829613246</v>
       </c>
       <c r="M2">
-        <v>1.024345534561707</v>
+        <v>1.056447359988555</v>
       </c>
       <c r="N2">
-        <v>1.010236712191127</v>
+        <v>1.018211673902787</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003650837081136</v>
+        <v>1.039128092039523</v>
       </c>
       <c r="D3">
-        <v>1.010743297765554</v>
+        <v>1.039577915622653</v>
       </c>
       <c r="E3">
-        <v>1.015713270708973</v>
+        <v>1.046601494685241</v>
       </c>
       <c r="F3">
-        <v>1.018748731000678</v>
+        <v>1.054960298436522</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043528698829288</v>
+        <v>1.033391067949188</v>
       </c>
       <c r="J3">
-        <v>1.024042468973734</v>
+        <v>1.043871624532185</v>
       </c>
       <c r="K3">
-        <v>1.021240537052759</v>
+        <v>1.04217509102618</v>
       </c>
       <c r="L3">
-        <v>1.026148968813396</v>
+        <v>1.049180259058331</v>
       </c>
       <c r="M3">
-        <v>1.029147209462219</v>
+        <v>1.057517496391835</v>
       </c>
       <c r="N3">
-        <v>1.011558860012428</v>
+        <v>1.018490192386643</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007247008992994</v>
+        <v>1.039890906351399</v>
       </c>
       <c r="D4">
-        <v>1.013756469773226</v>
+        <v>1.04024627920079</v>
       </c>
       <c r="E4">
-        <v>1.018857316914601</v>
+        <v>1.047304125881551</v>
       </c>
       <c r="F4">
-        <v>1.022344996596933</v>
+        <v>1.055774835342065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04426223235882</v>
+        <v>1.033496934626027</v>
       </c>
       <c r="J4">
-        <v>1.026467134819898</v>
+        <v>1.044403203667407</v>
       </c>
       <c r="K4">
-        <v>1.023691653763678</v>
+        <v>1.042719552710937</v>
       </c>
       <c r="L4">
-        <v>1.02873335580998</v>
+        <v>1.049759835759399</v>
       </c>
       <c r="M4">
-        <v>1.032181014572877</v>
+        <v>1.05820979905978</v>
       </c>
       <c r="N4">
-        <v>1.012391721772722</v>
+        <v>1.018669994418009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008738244149617</v>
+        <v>1.040211523712528</v>
       </c>
       <c r="D5">
-        <v>1.015007202846644</v>
+        <v>1.04052725957422</v>
       </c>
       <c r="E5">
-        <v>1.020162557983829</v>
+        <v>1.047599541462755</v>
       </c>
       <c r="F5">
-        <v>1.023838261845622</v>
+        <v>1.05611736649795</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044563274122283</v>
+        <v>1.033541040870176</v>
       </c>
       <c r="J5">
-        <v>1.027471719568204</v>
+        <v>1.044626485602743</v>
       </c>
       <c r="K5">
-        <v>1.024707671017792</v>
+        <v>1.042948300787479</v>
       </c>
       <c r="L5">
-        <v>1.029804923282666</v>
+        <v>1.050003377404704</v>
       </c>
       <c r="M5">
-        <v>1.033439640069351</v>
+        <v>1.058500808998235</v>
       </c>
       <c r="N5">
-        <v>1.012736635759547</v>
+        <v>1.018745483284292</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008987447690734</v>
+        <v>1.040265352734026</v>
       </c>
       <c r="D6">
-        <v>1.015216287505371</v>
+        <v>1.040574437456651</v>
       </c>
       <c r="E6">
-        <v>1.020380765767375</v>
+        <v>1.047649144791216</v>
       </c>
       <c r="F6">
-        <v>1.02408792073059</v>
+        <v>1.056174884880314</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04461339601824</v>
+        <v>1.033548423041081</v>
       </c>
       <c r="J6">
-        <v>1.027639546013885</v>
+        <v>1.044663964272774</v>
       </c>
       <c r="K6">
-        <v>1.024877435209463</v>
+        <v>1.042986700195867</v>
       </c>
       <c r="L6">
-        <v>1.029983987536547</v>
+        <v>1.050044262552348</v>
       </c>
       <c r="M6">
-        <v>1.033650005082035</v>
+        <v>1.058549668880203</v>
       </c>
       <c r="N6">
-        <v>1.012794247829515</v>
+        <v>1.018758152343519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007267014671739</v>
+        <v>1.039895190728403</v>
       </c>
       <c r="D7">
-        <v>1.013773244120136</v>
+        <v>1.040250033672062</v>
       </c>
       <c r="E7">
-        <v>1.01887482156478</v>
+        <v>1.047308073122227</v>
       </c>
       <c r="F7">
-        <v>1.022365021682889</v>
+        <v>1.055779411866137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044266283450693</v>
+        <v>1.033497525547931</v>
       </c>
       <c r="J7">
-        <v>1.026480615294336</v>
+        <v>1.044406187932603</v>
       </c>
       <c r="K7">
-        <v>1.023705285778596</v>
+        <v>1.042722609817328</v>
       </c>
       <c r="L7">
-        <v>1.028747731921953</v>
+        <v>1.049763090415373</v>
       </c>
       <c r="M7">
-        <v>1.032197897403653</v>
+        <v>1.058213687681425</v>
       </c>
       <c r="N7">
-        <v>1.012396350786399</v>
+        <v>1.018671003496289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998985828948622</v>
+        <v>1.038347377490157</v>
       </c>
       <c r="D8">
-        <v>1.007603865302677</v>
+        <v>1.038894079565803</v>
       </c>
       <c r="E8">
-        <v>1.012438092216877</v>
+        <v>1.045882696532272</v>
       </c>
       <c r="F8">
-        <v>1.01500339411443</v>
+        <v>1.054127242989604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042752596120622</v>
+        <v>1.03328138664405</v>
       </c>
       <c r="J8">
-        <v>1.02150972745576</v>
+        <v>1.043327076971219</v>
       </c>
       <c r="K8">
-        <v>1.018681813173551</v>
+        <v>1.041617534372154</v>
       </c>
       <c r="L8">
-        <v>1.023452176764263</v>
+        <v>1.048586880616547</v>
       </c>
       <c r="M8">
-        <v>1.025983898818022</v>
+        <v>1.056809048740204</v>
       </c>
       <c r="N8">
-        <v>1.010688355659965</v>
+        <v>1.018305887194619</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9861796074842627</v>
+        <v>1.035617574848984</v>
       </c>
       <c r="D9">
-        <v>0.9961642798194762</v>
+        <v>1.036504665983075</v>
       </c>
       <c r="E9">
-        <v>1.000508189841414</v>
+        <v>1.043371870536438</v>
       </c>
       <c r="F9">
-        <v>1.001366749230754</v>
+        <v>1.051218999959192</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039833767089778</v>
+        <v>1.03288771951435</v>
       </c>
       <c r="J9">
-        <v>1.012230019592356</v>
+        <v>1.041419280179384</v>
       </c>
       <c r="K9">
-        <v>1.009319896974783</v>
+        <v>1.039665598353855</v>
       </c>
       <c r="L9">
-        <v>1.013593027397199</v>
+        <v>1.046510586377913</v>
       </c>
       <c r="M9">
-        <v>1.014437690734157</v>
+        <v>1.054332717773719</v>
       </c>
       <c r="N9">
-        <v>1.007495302762949</v>
+        <v>1.017659295767725</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9764697494717501</v>
+        <v>1.03379601575523</v>
       </c>
       <c r="D10">
-        <v>0.988104207286394</v>
+        <v>1.034911638659489</v>
       </c>
       <c r="E10">
-        <v>0.9921057114545513</v>
+        <v>1.041698509644435</v>
       </c>
       <c r="F10">
-        <v>0.9917653784000757</v>
+        <v>1.049282160393913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037703305626555</v>
+        <v>1.032616663060303</v>
       </c>
       <c r="J10">
-        <v>1.005649079577978</v>
+        <v>1.040143150421053</v>
       </c>
       <c r="K10">
-        <v>1.002691617781535</v>
+        <v>1.038361130332835</v>
       </c>
       <c r="L10">
-        <v>1.006618977726709</v>
+        <v>1.045123870908656</v>
       </c>
       <c r="M10">
-        <v>1.006284920393961</v>
+        <v>1.052680965061529</v>
       </c>
       <c r="N10">
-        <v>1.005228372309373</v>
+        <v>1.017226064345152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9721140378334764</v>
+        <v>1.033006835317778</v>
       </c>
       <c r="D11">
-        <v>0.9844983767301674</v>
+        <v>1.034221807653594</v>
       </c>
       <c r="E11">
-        <v>0.9883472783487931</v>
+        <v>1.040974035389579</v>
       </c>
       <c r="F11">
-        <v>0.9874709845899464</v>
+        <v>1.048443938792777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036733141805193</v>
+        <v>1.032497248744063</v>
       </c>
       <c r="J11">
-        <v>1.002694748331518</v>
+        <v>1.039589547968832</v>
       </c>
       <c r="K11">
-        <v>0.9997186740910424</v>
+        <v>1.037795515805884</v>
       </c>
       <c r="L11">
-        <v>1.003492345316324</v>
+        <v>1.044522796786003</v>
       </c>
       <c r="M11">
-        <v>1.002633111919106</v>
+        <v>1.051965515437222</v>
       </c>
       <c r="N11">
-        <v>1.004210242316007</v>
+        <v>1.017037952470461</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9704717456912427</v>
+        <v>1.032713631270596</v>
       </c>
       <c r="D12">
-        <v>0.9831404021955578</v>
+        <v>1.033965566568014</v>
       </c>
       <c r="E12">
-        <v>0.9869319066115945</v>
+        <v>1.0407049473676</v>
       </c>
       <c r="F12">
-        <v>0.9858537815150108</v>
+        <v>1.048132650615182</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036365252744124</v>
+        <v>1.032452585521193</v>
       </c>
       <c r="J12">
-        <v>1.001580587059993</v>
+        <v>1.039383759466775</v>
       </c>
       <c r="K12">
-        <v>0.9985978939332228</v>
+        <v>1.037585304393071</v>
       </c>
       <c r="L12">
-        <v>1.002313827524683</v>
+        <v>1.044299437112749</v>
       </c>
       <c r="M12">
-        <v>1.001257113461833</v>
+        <v>1.051699729483266</v>
       </c>
       <c r="N12">
-        <v>1.003826220991506</v>
+        <v>1.016968000942216</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9708251548870548</v>
+        <v>1.032776527614489</v>
       </c>
       <c r="D13">
-        <v>0.9834325551927801</v>
+        <v>1.034020531492545</v>
       </c>
       <c r="E13">
-        <v>0.9872364048671022</v>
+        <v>1.040762667051309</v>
       </c>
       <c r="F13">
-        <v>0.9862017016163818</v>
+        <v>1.048199420090576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036444513077118</v>
+        <v>1.032462179848805</v>
       </c>
       <c r="J13">
-        <v>1.001820356302711</v>
+        <v>1.039427908872928</v>
       </c>
       <c r="K13">
-        <v>0.998839069421503</v>
+        <v>1.037630400766937</v>
       </c>
       <c r="L13">
-        <v>1.002567418315882</v>
+        <v>1.044347352793979</v>
       </c>
       <c r="M13">
-        <v>1.001553176624962</v>
+        <v>1.051756743132067</v>
       </c>
       <c r="N13">
-        <v>1.003908865300184</v>
+        <v>1.016983009335303</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9719787931004975</v>
+        <v>1.032982600365254</v>
       </c>
       <c r="D14">
-        <v>0.9843865131752686</v>
+        <v>1.034200626837909</v>
       </c>
       <c r="E14">
-        <v>0.9882306852648554</v>
+        <v>1.040951792212566</v>
       </c>
       <c r="F14">
-        <v>0.9873377655647441</v>
+        <v>1.048418206306943</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036702887772499</v>
+        <v>1.032493563140623</v>
       </c>
       <c r="J14">
-        <v>1.002603000401315</v>
+        <v>1.039572540614253</v>
       </c>
       <c r="K14">
-        <v>0.9996263729615458</v>
+        <v>1.037778142058053</v>
       </c>
       <c r="L14">
-        <v>1.003395285186559</v>
+        <v>1.044504335730219</v>
       </c>
       <c r="M14">
-        <v>1.002519778214516</v>
+        <v>1.051943546233127</v>
       </c>
       <c r="N14">
-        <v>1.004178620342496</v>
+        <v>1.017032171856481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9726863038437333</v>
+        <v>1.033109559605441</v>
       </c>
       <c r="D15">
-        <v>0.9849717740664778</v>
+        <v>1.034311588543296</v>
       </c>
       <c r="E15">
-        <v>0.9888406935823669</v>
+        <v>1.041068320277209</v>
       </c>
       <c r="F15">
-        <v>0.9880347597463328</v>
+        <v>1.048553016226147</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036861071994558</v>
+        <v>1.032512858679808</v>
       </c>
       <c r="J15">
-        <v>1.003082955033566</v>
+        <v>1.039661632309613</v>
       </c>
       <c r="K15">
-        <v>1.000109237828696</v>
+        <v>1.037869154807228</v>
       </c>
       <c r="L15">
-        <v>1.003903054500694</v>
+        <v>1.04460104560718</v>
       </c>
       <c r="M15">
-        <v>1.003112701766728</v>
+        <v>1.052058636956849</v>
       </c>
       <c r="N15">
-        <v>1.004344039994781</v>
+        <v>1.017062452110063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9767554984170604</v>
+        <v>1.033848381745069</v>
       </c>
       <c r="D16">
-        <v>0.9883409740832221</v>
+        <v>1.034957419535533</v>
       </c>
       <c r="E16">
-        <v>0.9923525094137986</v>
+        <v>1.041746592649029</v>
       </c>
       <c r="F16">
-        <v>0.9920473731444482</v>
+        <v>1.049337799569281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037766657541452</v>
+        <v>1.032624545092477</v>
       </c>
       <c r="J16">
-        <v>1.005842854226096</v>
+        <v>1.040179869394343</v>
       </c>
       <c r="K16">
-        <v>1.002886668339505</v>
+        <v>1.038398651961064</v>
       </c>
       <c r="L16">
-        <v>1.006824139948986</v>
+        <v>1.045163749108196</v>
       </c>
       <c r="M16">
-        <v>1.006524609895367</v>
+        <v>1.052728442120176</v>
       </c>
       <c r="N16">
-        <v>1.005295143069265</v>
+        <v>1.017238537732822</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9792663726616802</v>
+        <v>1.034311707793131</v>
       </c>
       <c r="D17">
-        <v>0.990422566660901</v>
+        <v>1.03536252080642</v>
       </c>
       <c r="E17">
-        <v>0.9945223576295165</v>
+        <v>1.042172081352698</v>
       </c>
       <c r="F17">
-        <v>0.9945267013811167</v>
+        <v>1.049830190637231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038321699210236</v>
+        <v>1.032694055376301</v>
       </c>
       <c r="J17">
-        <v>1.007545309606982</v>
+        <v>1.040504669275512</v>
       </c>
       <c r="K17">
-        <v>1.004600633068795</v>
+        <v>1.038730584257634</v>
       </c>
       <c r="L17">
-        <v>1.008627116289336</v>
+        <v>1.045516552026092</v>
       </c>
       <c r="M17">
-        <v>1.008631382786947</v>
+        <v>1.05314853056242</v>
       </c>
       <c r="N17">
-        <v>1.005881724156684</v>
+        <v>1.017348852208055</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9807164470382751</v>
+        <v>1.034581916377659</v>
       </c>
       <c r="D18">
-        <v>0.9916256425410804</v>
+        <v>1.035598805778142</v>
       </c>
       <c r="E18">
-        <v>0.9957764974133573</v>
+        <v>1.04242027165491</v>
       </c>
       <c r="F18">
-        <v>0.9959597477079909</v>
+        <v>1.050117436859445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03864087364897</v>
+        <v>1.032734402240626</v>
       </c>
       <c r="J18">
-        <v>1.008528293357935</v>
+        <v>1.04069402026685</v>
       </c>
       <c r="K18">
-        <v>1.005590511140647</v>
+        <v>1.038924120411396</v>
       </c>
       <c r="L18">
-        <v>1.009668534442874</v>
+        <v>1.045722276537175</v>
       </c>
       <c r="M18">
-        <v>1.009848587517285</v>
+        <v>1.053393538979492</v>
       </c>
       <c r="N18">
-        <v>1.006220367539491</v>
+        <v>1.017413146642235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9812084773550634</v>
+        <v>1.034674043521554</v>
       </c>
       <c r="D19">
-        <v>0.992034015762865</v>
+        <v>1.035679372247004</v>
       </c>
       <c r="E19">
-        <v>0.9962022136524181</v>
+        <v>1.042504899860693</v>
       </c>
       <c r="F19">
-        <v>0.9964462001383692</v>
+        <v>1.05021538772084</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038748938980291</v>
+        <v>1.032748126016986</v>
       </c>
       <c r="J19">
-        <v>1.008861794655598</v>
+        <v>1.040758567256495</v>
       </c>
       <c r="K19">
-        <v>1.005926393622496</v>
+        <v>1.038990098662594</v>
       </c>
       <c r="L19">
-        <v>1.010021928073865</v>
+        <v>1.045792413230823</v>
       </c>
       <c r="M19">
-        <v>1.010261685557455</v>
+        <v>1.053477076823039</v>
       </c>
       <c r="N19">
-        <v>1.006335252824096</v>
+        <v>1.017435060888456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9789984884314062</v>
+        <v>1.034262001619195</v>
       </c>
       <c r="D20">
-        <v>0.9902003861544273</v>
+        <v>1.035319057670786</v>
       </c>
       <c r="E20">
-        <v>0.9942907513914777</v>
+        <v>1.042126429424244</v>
       </c>
       <c r="F20">
-        <v>0.9942620587205681</v>
+        <v>1.049777357318773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038262623933944</v>
+        <v>1.032686617990783</v>
       </c>
       <c r="J20">
-        <v>1.007363696982285</v>
+        <v>1.040469831600937</v>
       </c>
       <c r="K20">
-        <v>1.004417766789347</v>
+        <v>1.038694978761746</v>
       </c>
       <c r="L20">
-        <v>1.008434739475243</v>
+        <v>1.045478705772299</v>
       </c>
       <c r="M20">
-        <v>1.008406558900205</v>
+        <v>1.053103461342887</v>
       </c>
       <c r="N20">
-        <v>1.005819153971903</v>
+        <v>1.017337021696849</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9716397627271041</v>
+        <v>1.032921918951669</v>
       </c>
       <c r="D21">
-        <v>0.9841061203502625</v>
+        <v>1.034147593453907</v>
       </c>
       <c r="E21">
-        <v>0.9879384387266897</v>
+        <v>1.040896099191603</v>
       </c>
       <c r="F21">
-        <v>0.9870038451646681</v>
+        <v>1.048353777449766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036627013765563</v>
+        <v>1.032484330031376</v>
       </c>
       <c r="J21">
-        <v>1.002373003711826</v>
+        <v>1.039529954484447</v>
       </c>
       <c r="K21">
-        <v>0.9993949959524939</v>
+        <v>1.037734639168788</v>
       </c>
       <c r="L21">
-        <v>1.003151981717876</v>
+        <v>1.044458110772665</v>
       </c>
       <c r="M21">
-        <v>1.002235688854181</v>
+        <v>1.051888538385311</v>
       </c>
       <c r="N21">
-        <v>1.004099348495886</v>
+        <v>1.017017696886102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9668710019736233</v>
+        <v>1.032078965356777</v>
       </c>
       <c r="D22">
-        <v>0.9801660622845298</v>
+        <v>1.033411005536035</v>
       </c>
       <c r="E22">
-        <v>0.983831971155567</v>
+        <v>1.040122621911951</v>
       </c>
       <c r="F22">
-        <v>0.9823117543827288</v>
+        <v>1.047459089383741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03555488405422</v>
+        <v>1.032355364783802</v>
       </c>
       <c r="J22">
-        <v>0.9991374108504185</v>
+        <v>1.038938113848072</v>
       </c>
       <c r="K22">
-        <v>0.9961409457879266</v>
+        <v>1.037130158104257</v>
       </c>
       <c r="L22">
-        <v>0.9997306711686882</v>
+        <v>1.04381587781588</v>
       </c>
       <c r="M22">
-        <v>0.9982419557892044</v>
+        <v>1.051124458403782</v>
       </c>
       <c r="N22">
-        <v>1.002984035241271</v>
+        <v>1.016816470938383</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9694130728889299</v>
+        <v>1.03252586874883</v>
       </c>
       <c r="D23">
-        <v>0.9822654686896853</v>
+        <v>1.033801489091396</v>
       </c>
       <c r="E23">
-        <v>0.9860200115228168</v>
+        <v>1.040532649708941</v>
       </c>
       <c r="F23">
-        <v>0.9848118461434084</v>
+        <v>1.047933345714698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036127519643215</v>
+        <v>1.032423900369504</v>
       </c>
       <c r="J23">
-        <v>1.000862304108607</v>
+        <v>1.039251945717911</v>
       </c>
       <c r="K23">
-        <v>0.9978754572698996</v>
+        <v>1.037450669543289</v>
       </c>
       <c r="L23">
-        <v>1.001554230028804</v>
+        <v>1.044156389679589</v>
       </c>
       <c r="M23">
-        <v>1.000370363528329</v>
+        <v>1.051529532066057</v>
       </c>
       <c r="N23">
-        <v>1.003578634073513</v>
+        <v>1.016923187735433</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9791195783969718</v>
+        <v>1.03428446182839</v>
       </c>
       <c r="D24">
-        <v>0.9903008141183092</v>
+        <v>1.035338696802629</v>
       </c>
       <c r="E24">
-        <v>0.9943954397128861</v>
+        <v>1.04214705753505</v>
       </c>
       <c r="F24">
-        <v>0.9943816797317294</v>
+        <v>1.049801230288915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038289331610067</v>
+        <v>1.032689979234867</v>
       </c>
       <c r="J24">
-        <v>1.007445790826773</v>
+        <v>1.040485573553362</v>
       </c>
       <c r="K24">
-        <v>1.004500426547635</v>
+        <v>1.038711067582505</v>
       </c>
       <c r="L24">
-        <v>1.008521697801597</v>
+        <v>1.04549580704913</v>
       </c>
       <c r="M24">
-        <v>1.008508183014318</v>
+        <v>1.053123826251473</v>
       </c>
       <c r="N24">
-        <v>1.005847437533338</v>
+        <v>1.01734236755057</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9898201946000762</v>
+        <v>1.036323584520675</v>
       </c>
       <c r="D25">
-        <v>0.9991940843102647</v>
+        <v>1.037122397815831</v>
       </c>
       <c r="E25">
-        <v>1.003667284815015</v>
+        <v>1.04402088250408</v>
       </c>
       <c r="F25">
-        <v>1.004977107452846</v>
+        <v>1.051970493417908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040619672460742</v>
+        <v>1.032991009483172</v>
       </c>
       <c r="J25">
-        <v>1.014695074514908</v>
+        <v>1.041913239271943</v>
       </c>
       <c r="K25">
-        <v>1.011804923977764</v>
+        <v>1.040170776970207</v>
       </c>
       <c r="L25">
-        <v>1.016208936418581</v>
+        <v>1.047047798057645</v>
       </c>
       <c r="M25">
-        <v>1.017498648460291</v>
+        <v>1.054973055807876</v>
       </c>
       <c r="N25">
-        <v>1.008343973712794</v>
+        <v>1.01782683679626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037948750878991</v>
+        <v>0.9979541405333844</v>
       </c>
       <c r="D2">
-        <v>1.038545000071734</v>
+        <v>1.005978794419156</v>
       </c>
       <c r="E2">
-        <v>1.04551580758189</v>
+        <v>1.010742979213288</v>
       </c>
       <c r="F2">
-        <v>1.053702120090383</v>
+        <v>1.013065267605378</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033224874792498</v>
+        <v>1.042346365163082</v>
       </c>
       <c r="J2">
-        <v>1.043048846335555</v>
+        <v>1.020196215568979</v>
       </c>
       <c r="K2">
-        <v>1.041332728820576</v>
+        <v>1.017355458848368</v>
       </c>
       <c r="L2">
-        <v>1.048283829613246</v>
+        <v>1.022054648984279</v>
       </c>
       <c r="M2">
-        <v>1.056447359988555</v>
+        <v>1.024345534561707</v>
       </c>
       <c r="N2">
-        <v>1.018211673902787</v>
+        <v>1.010236712191127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039128092039523</v>
+        <v>1.003650837081136</v>
       </c>
       <c r="D3">
-        <v>1.039577915622653</v>
+        <v>1.010743297765554</v>
       </c>
       <c r="E3">
-        <v>1.046601494685241</v>
+        <v>1.015713270708973</v>
       </c>
       <c r="F3">
-        <v>1.054960298436522</v>
+        <v>1.018748731000678</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033391067949188</v>
+        <v>1.043528698829288</v>
       </c>
       <c r="J3">
-        <v>1.043871624532185</v>
+        <v>1.024042468973734</v>
       </c>
       <c r="K3">
-        <v>1.04217509102618</v>
+        <v>1.021240537052759</v>
       </c>
       <c r="L3">
-        <v>1.049180259058331</v>
+        <v>1.026148968813396</v>
       </c>
       <c r="M3">
-        <v>1.057517496391835</v>
+        <v>1.029147209462219</v>
       </c>
       <c r="N3">
-        <v>1.018490192386643</v>
+        <v>1.011558860012428</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039890906351399</v>
+        <v>1.007247008992993</v>
       </c>
       <c r="D4">
-        <v>1.04024627920079</v>
+        <v>1.013756469773226</v>
       </c>
       <c r="E4">
-        <v>1.047304125881551</v>
+        <v>1.0188573169146</v>
       </c>
       <c r="F4">
-        <v>1.055774835342065</v>
+        <v>1.022344996596932</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033496934626027</v>
+        <v>1.04426223235882</v>
       </c>
       <c r="J4">
-        <v>1.044403203667407</v>
+        <v>1.026467134819897</v>
       </c>
       <c r="K4">
-        <v>1.042719552710937</v>
+        <v>1.023691653763678</v>
       </c>
       <c r="L4">
-        <v>1.049759835759399</v>
+        <v>1.028733355809979</v>
       </c>
       <c r="M4">
-        <v>1.05820979905978</v>
+        <v>1.032181014572876</v>
       </c>
       <c r="N4">
-        <v>1.018669994418009</v>
+        <v>1.012391721772722</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040211523712528</v>
+        <v>1.00873824414962</v>
       </c>
       <c r="D5">
-        <v>1.04052725957422</v>
+        <v>1.015007202846647</v>
       </c>
       <c r="E5">
-        <v>1.047599541462755</v>
+        <v>1.020162557983831</v>
       </c>
       <c r="F5">
-        <v>1.05611736649795</v>
+        <v>1.023838261845625</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033541040870176</v>
+        <v>1.044563274122283</v>
       </c>
       <c r="J5">
-        <v>1.044626485602743</v>
+        <v>1.027471719568207</v>
       </c>
       <c r="K5">
-        <v>1.042948300787479</v>
+        <v>1.024707671017794</v>
       </c>
       <c r="L5">
-        <v>1.050003377404704</v>
+        <v>1.029804923282669</v>
       </c>
       <c r="M5">
-        <v>1.058500808998235</v>
+        <v>1.033439640069353</v>
       </c>
       <c r="N5">
-        <v>1.018745483284292</v>
+        <v>1.012736635759548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040265352734026</v>
+        <v>1.008987447690734</v>
       </c>
       <c r="D6">
-        <v>1.040574437456651</v>
+        <v>1.015216287505372</v>
       </c>
       <c r="E6">
-        <v>1.047649144791216</v>
+        <v>1.020380765767375</v>
       </c>
       <c r="F6">
-        <v>1.056174884880314</v>
+        <v>1.02408792073059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033548423041081</v>
+        <v>1.04461339601824</v>
       </c>
       <c r="J6">
-        <v>1.044663964272774</v>
+        <v>1.027639546013885</v>
       </c>
       <c r="K6">
-        <v>1.042986700195867</v>
+        <v>1.024877435209463</v>
       </c>
       <c r="L6">
-        <v>1.050044262552348</v>
+        <v>1.029983987536547</v>
       </c>
       <c r="M6">
-        <v>1.058549668880203</v>
+        <v>1.033650005082035</v>
       </c>
       <c r="N6">
-        <v>1.018758152343519</v>
+        <v>1.012794247829515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039895190728403</v>
+        <v>1.007267014671738</v>
       </c>
       <c r="D7">
-        <v>1.040250033672062</v>
+        <v>1.013773244120136</v>
       </c>
       <c r="E7">
-        <v>1.047308073122227</v>
+        <v>1.018874821564779</v>
       </c>
       <c r="F7">
-        <v>1.055779411866137</v>
+        <v>1.022365021682889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033497525547931</v>
+        <v>1.044266283450693</v>
       </c>
       <c r="J7">
-        <v>1.044406187932603</v>
+        <v>1.026480615294336</v>
       </c>
       <c r="K7">
-        <v>1.042722609817328</v>
+        <v>1.023705285778595</v>
       </c>
       <c r="L7">
-        <v>1.049763090415373</v>
+        <v>1.028747731921952</v>
       </c>
       <c r="M7">
-        <v>1.058213687681425</v>
+        <v>1.032197897403653</v>
       </c>
       <c r="N7">
-        <v>1.018671003496289</v>
+        <v>1.012396350786399</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038347377490157</v>
+        <v>0.9998985828948627</v>
       </c>
       <c r="D8">
-        <v>1.038894079565803</v>
+        <v>1.007603865302677</v>
       </c>
       <c r="E8">
-        <v>1.045882696532272</v>
+        <v>1.012438092216878</v>
       </c>
       <c r="F8">
-        <v>1.054127242989604</v>
+        <v>1.015003394114431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03328138664405</v>
+        <v>1.042752596120622</v>
       </c>
       <c r="J8">
-        <v>1.043327076971219</v>
+        <v>1.021509727455761</v>
       </c>
       <c r="K8">
-        <v>1.041617534372154</v>
+        <v>1.018681813173551</v>
       </c>
       <c r="L8">
-        <v>1.048586880616547</v>
+        <v>1.023452176764263</v>
       </c>
       <c r="M8">
-        <v>1.056809048740204</v>
+        <v>1.025983898818022</v>
       </c>
       <c r="N8">
-        <v>1.018305887194619</v>
+        <v>1.010688355659965</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035617574848984</v>
+        <v>0.9861796074842633</v>
       </c>
       <c r="D9">
-        <v>1.036504665983075</v>
+        <v>0.9961642798194768</v>
       </c>
       <c r="E9">
-        <v>1.043371870536438</v>
+        <v>1.000508189841415</v>
       </c>
       <c r="F9">
-        <v>1.051218999959192</v>
+        <v>1.001366749230755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03288771951435</v>
+        <v>1.039833767089778</v>
       </c>
       <c r="J9">
-        <v>1.041419280179384</v>
+        <v>1.012230019592356</v>
       </c>
       <c r="K9">
-        <v>1.039665598353855</v>
+        <v>1.009319896974783</v>
       </c>
       <c r="L9">
-        <v>1.046510586377913</v>
+        <v>1.013593027397199</v>
       </c>
       <c r="M9">
-        <v>1.054332717773719</v>
+        <v>1.014437690734158</v>
       </c>
       <c r="N9">
-        <v>1.017659295767725</v>
+        <v>1.007495302762949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03379601575523</v>
+        <v>0.9764697494717492</v>
       </c>
       <c r="D10">
-        <v>1.034911638659489</v>
+        <v>0.988104207286393</v>
       </c>
       <c r="E10">
-        <v>1.041698509644435</v>
+        <v>0.9921057114545507</v>
       </c>
       <c r="F10">
-        <v>1.049282160393913</v>
+        <v>0.9917653784000752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032616663060303</v>
+        <v>1.037703305626555</v>
       </c>
       <c r="J10">
-        <v>1.040143150421053</v>
+        <v>1.005649079577978</v>
       </c>
       <c r="K10">
-        <v>1.038361130332835</v>
+        <v>1.002691617781534</v>
       </c>
       <c r="L10">
-        <v>1.045123870908656</v>
+        <v>1.006618977726709</v>
       </c>
       <c r="M10">
-        <v>1.052680965061529</v>
+        <v>1.00628492039396</v>
       </c>
       <c r="N10">
-        <v>1.017226064345152</v>
+        <v>1.005228372309373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033006835317778</v>
+        <v>0.9721140378334761</v>
       </c>
       <c r="D11">
-        <v>1.034221807653594</v>
+        <v>0.984498376730167</v>
       </c>
       <c r="E11">
-        <v>1.040974035389579</v>
+        <v>0.9883472783487927</v>
       </c>
       <c r="F11">
-        <v>1.048443938792777</v>
+        <v>0.9874709845899459</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032497248744063</v>
+        <v>1.036733141805193</v>
       </c>
       <c r="J11">
-        <v>1.039589547968832</v>
+        <v>1.002694748331517</v>
       </c>
       <c r="K11">
-        <v>1.037795515805884</v>
+        <v>0.9997186740910421</v>
       </c>
       <c r="L11">
-        <v>1.044522796786003</v>
+        <v>1.003492345316323</v>
       </c>
       <c r="M11">
-        <v>1.051965515437222</v>
+        <v>1.002633111919106</v>
       </c>
       <c r="N11">
-        <v>1.017037952470461</v>
+        <v>1.004210242316007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032713631270596</v>
+        <v>0.9704717456912425</v>
       </c>
       <c r="D12">
-        <v>1.033965566568014</v>
+        <v>0.9831404021955574</v>
       </c>
       <c r="E12">
-        <v>1.0407049473676</v>
+        <v>0.9869319066115944</v>
       </c>
       <c r="F12">
-        <v>1.048132650615182</v>
+        <v>0.9858537815150107</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032452585521193</v>
+        <v>1.036365252744124</v>
       </c>
       <c r="J12">
-        <v>1.039383759466775</v>
+        <v>1.001580587059993</v>
       </c>
       <c r="K12">
-        <v>1.037585304393071</v>
+        <v>0.9985978939332226</v>
       </c>
       <c r="L12">
-        <v>1.044299437112749</v>
+        <v>1.002313827524683</v>
       </c>
       <c r="M12">
-        <v>1.051699729483266</v>
+        <v>1.001257113461833</v>
       </c>
       <c r="N12">
-        <v>1.016968000942216</v>
+        <v>1.003826220991506</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032776527614489</v>
+        <v>0.9708251548870538</v>
       </c>
       <c r="D13">
-        <v>1.034020531492545</v>
+        <v>0.9834325551927792</v>
       </c>
       <c r="E13">
-        <v>1.040762667051309</v>
+        <v>0.9872364048671015</v>
       </c>
       <c r="F13">
-        <v>1.048199420090576</v>
+        <v>0.9862017016163811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032462179848805</v>
+        <v>1.036444513077118</v>
       </c>
       <c r="J13">
-        <v>1.039427908872928</v>
+        <v>1.00182035630271</v>
       </c>
       <c r="K13">
-        <v>1.037630400766937</v>
+        <v>0.9988390694215024</v>
       </c>
       <c r="L13">
-        <v>1.044347352793979</v>
+        <v>1.002567418315881</v>
       </c>
       <c r="M13">
-        <v>1.051756743132067</v>
+        <v>1.001553176624961</v>
       </c>
       <c r="N13">
-        <v>1.016983009335303</v>
+        <v>1.003908865300183</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032982600365254</v>
+        <v>0.9719787931004986</v>
       </c>
       <c r="D14">
-        <v>1.034200626837909</v>
+        <v>0.9843865131752699</v>
       </c>
       <c r="E14">
-        <v>1.040951792212566</v>
+        <v>0.9882306852648566</v>
       </c>
       <c r="F14">
-        <v>1.048418206306943</v>
+        <v>0.9873377655647453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032493563140623</v>
+        <v>1.036702887772499</v>
       </c>
       <c r="J14">
-        <v>1.039572540614253</v>
+        <v>1.002603000401316</v>
       </c>
       <c r="K14">
-        <v>1.037778142058053</v>
+        <v>0.9996263729615471</v>
       </c>
       <c r="L14">
-        <v>1.044504335730219</v>
+        <v>1.00339528518656</v>
       </c>
       <c r="M14">
-        <v>1.051943546233127</v>
+        <v>1.002519778214517</v>
       </c>
       <c r="N14">
-        <v>1.017032171856481</v>
+        <v>1.004178620342496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033109559605441</v>
+        <v>0.9726863038437332</v>
       </c>
       <c r="D15">
-        <v>1.034311588543296</v>
+        <v>0.9849717740664775</v>
       </c>
       <c r="E15">
-        <v>1.041068320277209</v>
+        <v>0.9888406935823669</v>
       </c>
       <c r="F15">
-        <v>1.048553016226147</v>
+        <v>0.9880347597463327</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032512858679808</v>
+        <v>1.036861071994558</v>
       </c>
       <c r="J15">
-        <v>1.039661632309613</v>
+        <v>1.003082955033565</v>
       </c>
       <c r="K15">
-        <v>1.037869154807228</v>
+        <v>1.000109237828696</v>
       </c>
       <c r="L15">
-        <v>1.04460104560718</v>
+        <v>1.003903054500694</v>
       </c>
       <c r="M15">
-        <v>1.052058636956849</v>
+        <v>1.003112701766728</v>
       </c>
       <c r="N15">
-        <v>1.017062452110063</v>
+        <v>1.004344039994781</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033848381745069</v>
+        <v>0.9767554984170606</v>
       </c>
       <c r="D16">
-        <v>1.034957419535533</v>
+        <v>0.9883409740832222</v>
       </c>
       <c r="E16">
-        <v>1.041746592649029</v>
+        <v>0.9923525094137987</v>
       </c>
       <c r="F16">
-        <v>1.049337799569281</v>
+        <v>0.9920473731444486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032624545092477</v>
+        <v>1.037766657541453</v>
       </c>
       <c r="J16">
-        <v>1.040179869394343</v>
+        <v>1.005842854226096</v>
       </c>
       <c r="K16">
-        <v>1.038398651961064</v>
+        <v>1.002886668339506</v>
       </c>
       <c r="L16">
-        <v>1.045163749108196</v>
+        <v>1.006824139948986</v>
       </c>
       <c r="M16">
-        <v>1.052728442120176</v>
+        <v>1.006524609895367</v>
       </c>
       <c r="N16">
-        <v>1.017238537732822</v>
+        <v>1.005295143069265</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034311707793131</v>
+        <v>0.9792663726616812</v>
       </c>
       <c r="D17">
-        <v>1.03536252080642</v>
+        <v>0.9904225666609018</v>
       </c>
       <c r="E17">
-        <v>1.042172081352698</v>
+        <v>0.9945223576295175</v>
       </c>
       <c r="F17">
-        <v>1.049830190637231</v>
+        <v>0.9945267013811177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032694055376301</v>
+        <v>1.038321699210236</v>
       </c>
       <c r="J17">
-        <v>1.040504669275512</v>
+        <v>1.007545309606984</v>
       </c>
       <c r="K17">
-        <v>1.038730584257634</v>
+        <v>1.004600633068796</v>
       </c>
       <c r="L17">
-        <v>1.045516552026092</v>
+        <v>1.008627116289337</v>
       </c>
       <c r="M17">
-        <v>1.05314853056242</v>
+        <v>1.008631382786948</v>
       </c>
       <c r="N17">
-        <v>1.017348852208055</v>
+        <v>1.005881724156685</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034581916377659</v>
+        <v>0.9807164470382745</v>
       </c>
       <c r="D18">
-        <v>1.035598805778142</v>
+        <v>0.9916256425410799</v>
       </c>
       <c r="E18">
-        <v>1.04242027165491</v>
+        <v>0.9957764974133568</v>
       </c>
       <c r="F18">
-        <v>1.050117436859445</v>
+        <v>0.9959597477079905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032734402240626</v>
+        <v>1.038640873648969</v>
       </c>
       <c r="J18">
-        <v>1.04069402026685</v>
+        <v>1.008528293357935</v>
       </c>
       <c r="K18">
-        <v>1.038924120411396</v>
+        <v>1.005590511140646</v>
       </c>
       <c r="L18">
-        <v>1.045722276537175</v>
+        <v>1.009668534442873</v>
       </c>
       <c r="M18">
-        <v>1.053393538979492</v>
+        <v>1.009848587517284</v>
       </c>
       <c r="N18">
-        <v>1.017413146642235</v>
+        <v>1.00622036753949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034674043521554</v>
+        <v>0.9812084773550627</v>
       </c>
       <c r="D19">
-        <v>1.035679372247004</v>
+        <v>0.9920340157628641</v>
       </c>
       <c r="E19">
-        <v>1.042504899860693</v>
+        <v>0.9962022136524172</v>
       </c>
       <c r="F19">
-        <v>1.05021538772084</v>
+        <v>0.9964462001383684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032748126016986</v>
+        <v>1.038748938980291</v>
       </c>
       <c r="J19">
-        <v>1.040758567256495</v>
+        <v>1.008861794655597</v>
       </c>
       <c r="K19">
-        <v>1.038990098662594</v>
+        <v>1.005926393622495</v>
       </c>
       <c r="L19">
-        <v>1.045792413230823</v>
+        <v>1.010021928073864</v>
       </c>
       <c r="M19">
-        <v>1.053477076823039</v>
+        <v>1.010261685557454</v>
       </c>
       <c r="N19">
-        <v>1.017435060888456</v>
+        <v>1.006335252824096</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034262001619195</v>
+        <v>0.9789984884314062</v>
       </c>
       <c r="D20">
-        <v>1.035319057670786</v>
+        <v>0.9902003861544276</v>
       </c>
       <c r="E20">
-        <v>1.042126429424244</v>
+        <v>0.9942907513914777</v>
       </c>
       <c r="F20">
-        <v>1.049777357318773</v>
+        <v>0.9942620587205678</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032686617990783</v>
+        <v>1.038262623933944</v>
       </c>
       <c r="J20">
-        <v>1.040469831600937</v>
+        <v>1.007363696982285</v>
       </c>
       <c r="K20">
-        <v>1.038694978761746</v>
+        <v>1.004417766789348</v>
       </c>
       <c r="L20">
-        <v>1.045478705772299</v>
+        <v>1.008434739475243</v>
       </c>
       <c r="M20">
-        <v>1.053103461342887</v>
+        <v>1.008406558900205</v>
       </c>
       <c r="N20">
-        <v>1.017337021696849</v>
+        <v>1.005819153971903</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032921918951669</v>
+        <v>0.9716397627271038</v>
       </c>
       <c r="D21">
-        <v>1.034147593453907</v>
+        <v>0.9841061203502622</v>
       </c>
       <c r="E21">
-        <v>1.040896099191603</v>
+        <v>0.9879384387266897</v>
       </c>
       <c r="F21">
-        <v>1.048353777449766</v>
+        <v>0.9870038451646681</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032484330031376</v>
+        <v>1.036627013765563</v>
       </c>
       <c r="J21">
-        <v>1.039529954484447</v>
+        <v>1.002373003711826</v>
       </c>
       <c r="K21">
-        <v>1.037734639168788</v>
+        <v>0.9993949959524939</v>
       </c>
       <c r="L21">
-        <v>1.044458110772665</v>
+        <v>1.003151981717876</v>
       </c>
       <c r="M21">
-        <v>1.051888538385311</v>
+        <v>1.002235688854181</v>
       </c>
       <c r="N21">
-        <v>1.017017696886102</v>
+        <v>1.004099348495886</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032078965356777</v>
+        <v>0.9668710019736244</v>
       </c>
       <c r="D22">
-        <v>1.033411005536035</v>
+        <v>0.9801660622845307</v>
       </c>
       <c r="E22">
-        <v>1.040122621911951</v>
+        <v>0.983831971155568</v>
       </c>
       <c r="F22">
-        <v>1.047459089383741</v>
+        <v>0.9823117543827299</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032355364783802</v>
+        <v>1.03555488405422</v>
       </c>
       <c r="J22">
-        <v>1.038938113848072</v>
+        <v>0.9991374108504196</v>
       </c>
       <c r="K22">
-        <v>1.037130158104257</v>
+        <v>0.9961409457879277</v>
       </c>
       <c r="L22">
-        <v>1.04381587781588</v>
+        <v>0.999730671168689</v>
       </c>
       <c r="M22">
-        <v>1.051124458403782</v>
+        <v>0.9982419557892053</v>
       </c>
       <c r="N22">
-        <v>1.016816470938383</v>
+        <v>1.002984035241271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03252586874883</v>
+        <v>0.9694130728889301</v>
       </c>
       <c r="D23">
-        <v>1.033801489091396</v>
+        <v>0.9822654686896852</v>
       </c>
       <c r="E23">
-        <v>1.040532649708941</v>
+        <v>0.986020011522817</v>
       </c>
       <c r="F23">
-        <v>1.047933345714698</v>
+        <v>0.9848118461434088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032423900369504</v>
+        <v>1.036127519643216</v>
       </c>
       <c r="J23">
-        <v>1.039251945717911</v>
+        <v>1.000862304108607</v>
       </c>
       <c r="K23">
-        <v>1.037450669543289</v>
+        <v>0.9978754572698998</v>
       </c>
       <c r="L23">
-        <v>1.044156389679589</v>
+        <v>1.001554230028804</v>
       </c>
       <c r="M23">
-        <v>1.051529532066057</v>
+        <v>1.00037036352833</v>
       </c>
       <c r="N23">
-        <v>1.016923187735433</v>
+        <v>1.003578634073513</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03428446182839</v>
+        <v>0.9791195783969705</v>
       </c>
       <c r="D24">
-        <v>1.035338696802629</v>
+        <v>0.9903008141183077</v>
       </c>
       <c r="E24">
-        <v>1.04214705753505</v>
+        <v>0.9943954397128844</v>
       </c>
       <c r="F24">
-        <v>1.049801230288915</v>
+        <v>0.9943816797317279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032689979234867</v>
+        <v>1.038289331610066</v>
       </c>
       <c r="J24">
-        <v>1.040485573553362</v>
+        <v>1.007445790826772</v>
       </c>
       <c r="K24">
-        <v>1.038711067582505</v>
+        <v>1.004500426547634</v>
       </c>
       <c r="L24">
-        <v>1.04549580704913</v>
+        <v>1.008521697801595</v>
       </c>
       <c r="M24">
-        <v>1.053123826251473</v>
+        <v>1.008508183014316</v>
       </c>
       <c r="N24">
-        <v>1.01734236755057</v>
+        <v>1.005847437533337</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036323584520675</v>
+        <v>0.9898201946000766</v>
       </c>
       <c r="D25">
-        <v>1.037122397815831</v>
+        <v>0.999194084310265</v>
       </c>
       <c r="E25">
-        <v>1.04402088250408</v>
+        <v>1.003667284815015</v>
       </c>
       <c r="F25">
-        <v>1.051970493417908</v>
+        <v>1.004977107452846</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032991009483172</v>
+        <v>1.040619672460742</v>
       </c>
       <c r="J25">
-        <v>1.041913239271943</v>
+        <v>1.014695074514909</v>
       </c>
       <c r="K25">
-        <v>1.040170776970207</v>
+        <v>1.011804923977764</v>
       </c>
       <c r="L25">
-        <v>1.047047798057645</v>
+        <v>1.016208936418581</v>
       </c>
       <c r="M25">
-        <v>1.054973055807876</v>
+        <v>1.017498648460291</v>
       </c>
       <c r="N25">
-        <v>1.01782683679626</v>
+        <v>1.008343973712794</v>
       </c>
     </row>
   </sheetData>
